--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -546,10 +546,10 @@
         <v>0.280937</v>
       </c>
       <c r="I2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>2.092492038126555</v>
+        <v>1.799228459023223</v>
       </c>
       <c r="R2">
-        <v>18.832428343139</v>
+        <v>16.193056131209</v>
       </c>
       <c r="S2">
-        <v>4.20903240305631E-05</v>
+        <v>7.250534045744633E-05</v>
       </c>
       <c r="T2">
-        <v>4.209032403056311E-05</v>
+        <v>7.250534045744632E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.280937</v>
       </c>
       <c r="I3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
         <v>8.657273182700445</v>
@@ -638,10 +638,10 @@
         <v>77.915458644304</v>
       </c>
       <c r="S3">
-        <v>0.0001741404157538437</v>
+        <v>0.0003488709487652196</v>
       </c>
       <c r="T3">
-        <v>0.0001741404157538437</v>
+        <v>0.0003488709487652195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.280937</v>
       </c>
       <c r="I4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>22.84622948298</v>
+        <v>15.62552880474277</v>
       </c>
       <c r="R4">
-        <v>205.61606534682</v>
+        <v>140.629759242685</v>
       </c>
       <c r="S4">
-        <v>0.0004595502321127942</v>
+        <v>0.0006296778378164185</v>
       </c>
       <c r="T4">
-        <v>0.0004595502321127942</v>
+        <v>0.0006296778378164184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.280937</v>
       </c>
       <c r="I5">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J5">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>6.129926004205444</v>
+        <v>3.848757863057333</v>
       </c>
       <c r="R5">
-        <v>55.16933403784899</v>
+        <v>34.63882076751599</v>
       </c>
       <c r="S5">
-        <v>0.0001233030124364934</v>
+        <v>0.0001550973128508322</v>
       </c>
       <c r="T5">
-        <v>0.0001233030124364934</v>
+        <v>0.0001550973128508322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.280937</v>
       </c>
       <c r="I6">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J6">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>26.36909421420811</v>
+        <v>10.49060058860522</v>
       </c>
       <c r="R6">
-        <v>237.321847927873</v>
+        <v>94.41540529744701</v>
       </c>
       <c r="S6">
-        <v>0.0005304123980620564</v>
+        <v>0.0004227504091908604</v>
       </c>
       <c r="T6">
-        <v>0.0005304123980620564</v>
+        <v>0.0004227504091908603</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>30.802262</v>
       </c>
       <c r="I7">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J7">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>229.4232799214349</v>
+        <v>197.2695173390816</v>
       </c>
       <c r="R7">
-        <v>2064.809519292914</v>
+        <v>1775.425656051734</v>
       </c>
       <c r="S7">
-        <v>0.004614832465835047</v>
+        <v>0.007949570519972313</v>
       </c>
       <c r="T7">
-        <v>0.004614832465835048</v>
+        <v>0.007949570519972311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>30.802262</v>
       </c>
       <c r="I8">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J8">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>949.1935799809671</v>
@@ -948,10 +948,10 @@
         <v>8542.742219828704</v>
       </c>
       <c r="S8">
-        <v>0.01909295931414808</v>
+        <v>0.03825061977615932</v>
       </c>
       <c r="T8">
-        <v>0.01909295931414808</v>
+        <v>0.03825061977615931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>30.802262</v>
       </c>
       <c r="I9">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J9">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>2504.88738132348</v>
+        <v>1713.201294711034</v>
       </c>
       <c r="R9">
-        <v>22543.98643191132</v>
+        <v>15418.81165239931</v>
       </c>
       <c r="S9">
-        <v>0.05038562614286868</v>
+        <v>0.06903861625921409</v>
       </c>
       <c r="T9">
-        <v>0.05038562614286868</v>
+        <v>0.06903861625921409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>30.802262</v>
       </c>
       <c r="I10">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J10">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>672.092272723597</v>
+        <v>421.9823236969573</v>
       </c>
       <c r="R10">
-        <v>6048.830454512373</v>
+        <v>3797.840913272615</v>
       </c>
       <c r="S10">
-        <v>0.01351908682180748</v>
+        <v>0.0170050511891538</v>
       </c>
       <c r="T10">
-        <v>0.01351908682180748</v>
+        <v>0.0170050511891538</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>30.802262</v>
       </c>
       <c r="I11">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J11">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>2891.1384000282</v>
+        <v>1150.201745827614</v>
       </c>
       <c r="R11">
-        <v>26020.2456002538</v>
+        <v>10351.81571244852</v>
       </c>
       <c r="S11">
-        <v>0.05815503708360149</v>
+        <v>0.04635085042021553</v>
       </c>
       <c r="T11">
-        <v>0.05815503708360149</v>
+        <v>0.04635085042021552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H12">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I12">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J12">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>679.4947830528772</v>
+        <v>454.8789834956066</v>
       </c>
       <c r="R12">
-        <v>6115.453047475896</v>
+        <v>4093.910851460459</v>
       </c>
       <c r="S12">
-        <v>0.01366798777470093</v>
+        <v>0.01833072137108764</v>
       </c>
       <c r="T12">
-        <v>0.01366798777470093</v>
+        <v>0.01833072137108763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H13">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I13">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J13">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>2811.275673180243</v>
+        <v>2188.722396781367</v>
       </c>
       <c r="R13">
-        <v>25301.48105862219</v>
+        <v>19698.5015710323</v>
       </c>
       <c r="S13">
-        <v>0.05654860418457627</v>
+        <v>0.08820117409193487</v>
       </c>
       <c r="T13">
-        <v>0.05654860418457627</v>
+        <v>0.08820117409193484</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H14">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I14">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J14">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>7418.854391442539</v>
+        <v>3950.429209607658</v>
       </c>
       <c r="R14">
-        <v>66769.68952298285</v>
+        <v>35553.86288646893</v>
       </c>
       <c r="S14">
-        <v>0.1492297125063167</v>
+        <v>0.1591944665832717</v>
       </c>
       <c r="T14">
-        <v>0.1492297125063167</v>
+        <v>0.1591944665832717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H15">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I15">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J15">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>1990.570412916358</v>
+        <v>973.038779866057</v>
       </c>
       <c r="R15">
-        <v>17915.13371624722</v>
+        <v>8757.349018794514</v>
       </c>
       <c r="S15">
-        <v>0.04004017800723121</v>
+        <v>0.03921153406543357</v>
       </c>
       <c r="T15">
-        <v>0.04004017800723121</v>
+        <v>0.03921153406543357</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H16">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I16">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J16">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>8562.833992155218</v>
+        <v>2652.222238966688</v>
       </c>
       <c r="R16">
-        <v>77065.50592939697</v>
+        <v>23870.0001507002</v>
       </c>
       <c r="S16">
-        <v>0.1722407783555616</v>
+        <v>0.1068792989799014</v>
       </c>
       <c r="T16">
-        <v>0.1722407783555616</v>
+        <v>0.1068792989799014</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H17">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I17">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J17">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>6.557910580923778</v>
+        <v>6.368865396830889</v>
       </c>
       <c r="R17">
-        <v>59.021195228314</v>
+        <v>57.31978857147801</v>
       </c>
       <c r="S17">
-        <v>0.000131911890838863</v>
+        <v>0.0002566526510899929</v>
       </c>
       <c r="T17">
-        <v>0.000131911890838863</v>
+        <v>0.0002566526510899928</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H18">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I18">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J18">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>27.13206185367823</v>
+        <v>30.64480629332978</v>
       </c>
       <c r="R18">
-        <v>244.188556683104</v>
+        <v>275.803256639968</v>
       </c>
       <c r="S18">
-        <v>0.0005457594362275553</v>
+        <v>0.001234924949306669</v>
       </c>
       <c r="T18">
-        <v>0.0005457594362275553</v>
+        <v>0.001234924949306669</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H19">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I19">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J19">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>71.60052575148001</v>
+        <v>55.3108690631411</v>
       </c>
       <c r="R19">
-        <v>644.4047317633201</v>
+        <v>497.7978215682699</v>
       </c>
       <c r="S19">
-        <v>0.001440239329338944</v>
+        <v>0.002228918385715974</v>
       </c>
       <c r="T19">
-        <v>0.001440239329338945</v>
+        <v>0.002228918385715974</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H20">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I20">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J20">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>19.21130683930823</v>
+        <v>13.62374002694133</v>
       </c>
       <c r="R20">
-        <v>172.901761553774</v>
+        <v>122.613660242472</v>
       </c>
       <c r="S20">
-        <v>0.0003864340294651821</v>
+        <v>0.0005490097180284601</v>
       </c>
       <c r="T20">
-        <v>0.0003864340294651821</v>
+        <v>0.00054900971802846</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H21">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I21">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J21">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>82.64125206017756</v>
+        <v>37.13437431787489</v>
       </c>
       <c r="R21">
-        <v>743.771268541598</v>
+        <v>334.209368860874</v>
       </c>
       <c r="S21">
-        <v>0.001662322730087224</v>
+        <v>0.001496441677036089</v>
       </c>
       <c r="T21">
-        <v>0.001662322730087224</v>
+        <v>0.001496441677036089</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H22">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I22">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J22">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>656.3297907944343</v>
+        <v>444.2487049550835</v>
       </c>
       <c r="R22">
-        <v>5906.96811714991</v>
+        <v>3998.238344595752</v>
       </c>
       <c r="S22">
-        <v>0.01320202565271536</v>
+        <v>0.01790234221730495</v>
       </c>
       <c r="T22">
-        <v>0.01320202565271536</v>
+        <v>0.01790234221730494</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H23">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I23">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J23">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>2715.435085688196</v>
+        <v>2137.573125063273</v>
       </c>
       <c r="R23">
-        <v>24438.91577119376</v>
+        <v>19238.15812556945</v>
       </c>
       <c r="S23">
-        <v>0.05462077778938889</v>
+        <v>0.08613995983008166</v>
       </c>
       <c r="T23">
-        <v>0.05462077778938888</v>
+        <v>0.08613995983008164</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H24">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I24">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J24">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>7165.9345621362</v>
+        <v>3858.10979196819</v>
       </c>
       <c r="R24">
-        <v>64493.41105922579</v>
+        <v>34722.98812771371</v>
       </c>
       <c r="S24">
-        <v>0.1441422486711904</v>
+        <v>0.1554741770484915</v>
       </c>
       <c r="T24">
-        <v>0.1441422486711904</v>
+        <v>0.1554741770484915</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H25">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I25">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J25">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>1922.708893806645</v>
+        <v>950.2993840355025</v>
       </c>
       <c r="R25">
-        <v>17304.38004425981</v>
+        <v>8552.694456319523</v>
       </c>
       <c r="S25">
-        <v>0.03867514852253536</v>
+        <v>0.03829518148762583</v>
       </c>
       <c r="T25">
-        <v>0.03867514852253535</v>
+        <v>0.03829518148762582</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H26">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I26">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J26">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>8270.914189257819</v>
+        <v>2590.241223851581</v>
       </c>
       <c r="R26">
-        <v>74438.22770332036</v>
+        <v>23312.17101466424</v>
       </c>
       <c r="S26">
-        <v>0.1663688329091692</v>
+        <v>0.1043815869298938</v>
       </c>
       <c r="T26">
-        <v>0.1663688329091692</v>
+        <v>0.1043815869298938</v>
       </c>
     </row>
   </sheetData>
